--- a/Design/Datas/global.xlsx
+++ b/Design/Datas/global.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16800" windowHeight="11520"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,39 +27,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>##var</t>
-  </si>
-  <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>content</t>
+    <t>##column#var</t>
   </si>
   <si>
     <t>##type</t>
   </si>
   <si>
-    <t>string</t>
+    <t>##group</t>
   </si>
   <si>
-    <t>##group</t>
+    <t>##</t>
+  </si>
+  <si>
+    <t>TestCount</t>
+  </si>
+  <si>
+    <t>int</t>
   </si>
   <si>
     <t>c,s</t>
   </si>
   <si>
-    <t>##</t>
-  </si>
-  <si>
-    <t>内容</t>
-  </si>
-  <si>
     <t>测试</t>
-  </si>
-  <si>
-    <t>TestCount</t>
   </si>
   <si>
     <t>10</t>
@@ -84,20 +75,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -208,6 +185,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -228,7 +219,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -237,6 +228,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -244,30 +265,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,152 +558,143 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="22" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="23" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1027,22 +1015,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="38" style="3" customWidth="1"/>
-    <col min="2" max="2" width="27" style="4" customWidth="1"/>
-    <col min="3" max="3" width="45" style="4" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="35" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7.375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="30.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -1051,49 +1041,26 @@
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" s="2" customFormat="1" spans="1:3">
-      <c r="A3" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:3">
-      <c r="A4" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
